--- a/Marketing.Mvc/DadosApp/DadosCompletos/07_ExtracaoCocaColaAjustado_GURUME.xlsx
+++ b/Marketing.Mvc/DadosApp/DadosCompletos/07_ExtracaoCocaColaAjustado_GURUME.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJETO\Marketing\Marketing.Mvc\DadosApp\DadosCompletos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DDFFE3-6805-42C4-8515-56088B6BC6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B423D9-D71D-48B5-BEE7-92558811FC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtracaoCocaCola" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ExtracaoCocaCola!$A$1:$N$149</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="44">
   <si>
     <t>AnoMes</t>
   </si>
@@ -154,6 +157,9 @@
   </si>
   <si>
     <t>5511971703564</t>
+  </si>
+  <si>
+    <t>5511977515914</t>
   </si>
 </sst>
 </file>
@@ -493,10 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45474</v>
       </c>
@@ -602,7 +609,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45474</v>
       </c>
@@ -643,7 +650,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45474</v>
       </c>
@@ -724,8 +731,11 @@
       <c r="M5" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45474</v>
       </c>
@@ -766,7 +776,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45474</v>
       </c>
@@ -807,7 +817,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45474</v>
       </c>
@@ -848,7 +858,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45474</v>
       </c>
@@ -889,7 +899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45474</v>
       </c>
@@ -930,7 +940,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45505</v>
       </c>
@@ -971,7 +981,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45505</v>
       </c>
@@ -1012,7 +1022,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45505</v>
       </c>
@@ -1053,7 +1063,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45505</v>
       </c>
@@ -1135,7 +1145,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45505</v>
       </c>
@@ -1176,7 +1186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45505</v>
       </c>
@@ -1217,7 +1227,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45505</v>
       </c>
@@ -1258,7 +1268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45505</v>
       </c>
@@ -1299,7 +1309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45536</v>
       </c>
@@ -1340,7 +1350,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45536</v>
       </c>
@@ -1381,7 +1391,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45536</v>
       </c>
@@ -1463,7 +1473,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45536</v>
       </c>
@@ -1504,7 +1514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45536</v>
       </c>
@@ -1545,7 +1555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45536</v>
       </c>
@@ -1586,7 +1596,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45536</v>
       </c>
@@ -1627,7 +1637,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45536</v>
       </c>
@@ -1668,7 +1678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45536</v>
       </c>
@@ -1709,7 +1719,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45566</v>
       </c>
@@ -1750,7 +1760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45566</v>
       </c>
@@ -1791,7 +1801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45566</v>
       </c>
@@ -1832,7 +1842,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45566</v>
       </c>
@@ -1914,7 +1924,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45566</v>
       </c>
@@ -1955,7 +1965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45566</v>
       </c>
@@ -1996,7 +2006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45566</v>
       </c>
@@ -2037,7 +2047,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45566</v>
       </c>
@@ -2078,7 +2088,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45566</v>
       </c>
@@ -2119,7 +2129,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45597</v>
       </c>
@@ -2160,7 +2170,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45597</v>
       </c>
@@ -2201,7 +2211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45597</v>
       </c>
@@ -2283,7 +2293,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45597</v>
       </c>
@@ -2324,7 +2334,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45597</v>
       </c>
@@ -2365,7 +2375,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45597</v>
       </c>
@@ -2406,7 +2416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45597</v>
       </c>
@@ -2447,7 +2457,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45597</v>
       </c>
@@ -2488,7 +2498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45597</v>
       </c>
@@ -2529,7 +2539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45627</v>
       </c>
@@ -2570,7 +2580,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45627</v>
       </c>
@@ -2611,7 +2621,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45627</v>
       </c>
@@ -2693,7 +2703,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45627</v>
       </c>
@@ -2734,7 +2744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45627</v>
       </c>
@@ -2775,7 +2785,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45627</v>
       </c>
@@ -2816,7 +2826,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45627</v>
       </c>
@@ -2857,7 +2867,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45627</v>
       </c>
@@ -2898,7 +2908,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45627</v>
       </c>
@@ -2939,7 +2949,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45658</v>
       </c>
@@ -2980,7 +2990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45658</v>
       </c>
@@ -3021,7 +3031,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45658</v>
       </c>
@@ -3062,7 +3072,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45658</v>
       </c>
@@ -3144,7 +3154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45658</v>
       </c>
@@ -3185,7 +3195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45658</v>
       </c>
@@ -3226,7 +3236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45658</v>
       </c>
@@ -3267,7 +3277,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45658</v>
       </c>
@@ -3308,7 +3318,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45658</v>
       </c>
@@ -3349,7 +3359,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45689</v>
       </c>
@@ -3390,7 +3400,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45689</v>
       </c>
@@ -3431,7 +3441,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45689</v>
       </c>
@@ -3513,7 +3523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45689</v>
       </c>
@@ -3554,7 +3564,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45689</v>
       </c>
@@ -3595,7 +3605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45689</v>
       </c>
@@ -3636,7 +3646,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45689</v>
       </c>
@@ -3677,7 +3687,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45689</v>
       </c>
@@ -3718,7 +3728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45689</v>
       </c>
@@ -3759,7 +3769,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45717</v>
       </c>
@@ -3800,7 +3810,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45717</v>
       </c>
@@ -3841,7 +3851,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45717</v>
       </c>
@@ -3923,7 +3933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45717</v>
       </c>
@@ -3964,7 +3974,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45717</v>
       </c>
@@ -4005,7 +4015,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45717</v>
       </c>
@@ -4046,7 +4056,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45717</v>
       </c>
@@ -4087,7 +4097,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45717</v>
       </c>
@@ -4128,7 +4138,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45717</v>
       </c>
@@ -4169,7 +4179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45748</v>
       </c>
@@ -4210,7 +4220,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45748</v>
       </c>
@@ -4251,7 +4261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45748</v>
       </c>
@@ -4333,7 +4343,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45748</v>
       </c>
@@ -4374,7 +4384,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45748</v>
       </c>
@@ -4415,7 +4425,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45748</v>
       </c>
@@ -4456,7 +4466,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45748</v>
       </c>
@@ -4497,7 +4507,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45748</v>
       </c>
@@ -4538,7 +4548,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45748</v>
       </c>
@@ -4579,7 +4589,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45778</v>
       </c>
@@ -4620,7 +4630,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45778</v>
       </c>
@@ -4661,7 +4671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45778</v>
       </c>
@@ -4743,7 +4753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45778</v>
       </c>
@@ -4784,7 +4794,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45778</v>
       </c>
@@ -4825,7 +4835,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45778</v>
       </c>
@@ -4866,7 +4876,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45778</v>
       </c>
@@ -4907,7 +4917,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45778</v>
       </c>
@@ -4948,7 +4958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45778</v>
       </c>
@@ -4989,7 +4999,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45809</v>
       </c>
@@ -5030,7 +5040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45809</v>
       </c>
@@ -5071,7 +5081,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45809</v>
       </c>
@@ -5153,7 +5163,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45809</v>
       </c>
@@ -5194,7 +5204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45809</v>
       </c>
@@ -5235,7 +5245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45809</v>
       </c>
@@ -5276,7 +5286,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45809</v>
       </c>
@@ -5317,7 +5327,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45809</v>
       </c>
@@ -5358,7 +5368,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45809</v>
       </c>
@@ -5399,7 +5409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45839</v>
       </c>
@@ -5440,7 +5450,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45839</v>
       </c>
@@ -5522,7 +5532,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>45839</v>
       </c>
@@ -5563,7 +5573,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>45839</v>
       </c>
@@ -5604,7 +5614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45839</v>
       </c>
@@ -5645,7 +5655,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>45839</v>
       </c>
@@ -5686,7 +5696,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>45839</v>
       </c>
@@ -5727,7 +5737,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45839</v>
       </c>
@@ -5768,7 +5778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>45839</v>
       </c>
@@ -5809,7 +5819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>45870</v>
       </c>
@@ -5850,7 +5860,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>45870</v>
       </c>
@@ -5891,7 +5901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>45870</v>
       </c>
@@ -5973,7 +5983,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>45870</v>
       </c>
@@ -6014,7 +6024,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>45870</v>
       </c>
@@ -6055,7 +6065,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>45870</v>
       </c>
@@ -6096,7 +6106,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>45870</v>
       </c>
@@ -6137,7 +6147,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>45870</v>
       </c>
@@ -6178,7 +6188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>45870</v>
       </c>
@@ -6219,7 +6229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>45901</v>
       </c>
@@ -6260,7 +6270,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>45901</v>
       </c>
@@ -6301,7 +6311,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>45901</v>
       </c>
@@ -6383,7 +6393,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>45901</v>
       </c>
@@ -6424,7 +6434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>45901</v>
       </c>
@@ -6465,7 +6475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>45901</v>
       </c>
@@ -6506,7 +6516,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>45901</v>
       </c>
@@ -6547,7 +6557,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>45901</v>
       </c>
@@ -6588,7 +6598,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>45901</v>
       </c>
@@ -6630,6 +6640,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N149" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="GURUMÊ RDB"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>